--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -311,7 +311,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>能</t>
+    <t>租客APP老版本兼容性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动组、EQ组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ、移动组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1101,10 +1121,10 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1511,7 +1531,7 @@
       <c r="P7" s="11">
         <v>42705</v>
       </c>
-      <c r="Q7" s="4"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="7">
         <v>5692</v>
       </c>
@@ -1564,8 +1584,8 @@
       <c r="P8" s="11">
         <v>42705</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>76</v>
+      <c r="Q8" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -1726,22 +1746,50 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="11"/>
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11">
+        <v>42705</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="11">
+        <v>42705</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="O12" s="7"/>
-      <c r="P12" s="5"/>
+      <c r="P12" s="11">
+        <v>42705</v>
+      </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -1121,10 +1121,10 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5:Q7"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1423,11 +1423,15 @@
       <c r="N5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P5" s="11">
         <v>42705</v>
       </c>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R5" s="7">
         <v>5691</v>
       </c>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.1.3.1 20161201\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.3.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
-    <sheet name="数据修复" sheetId="2" r:id="rId3"/>
+    <sheet name="配置文件（测试环境）" sheetId="4" r:id="rId2"/>
+    <sheet name="配置文件(预发布环境)" sheetId="5" r:id="rId3"/>
+    <sheet name="配置文件（生产环境）" sheetId="6" r:id="rId4"/>
+    <sheet name="配置文件(公测环境)" sheetId="7" r:id="rId5"/>
+    <sheet name="BS权限配置" sheetId="3" r:id="rId6"/>
+    <sheet name="数据修复" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -334,12 +343,108 @@
     <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>配置汇总</t>
+  </si>
+  <si>
+    <t>配置所属系统</t>
+  </si>
+  <si>
+    <t>配置的详细内容</t>
+  </si>
+  <si>
+    <t>用途</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>开发人</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>配置文件名</t>
+  </si>
+  <si>
+    <t>技术经理</t>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sysconfig.ELASTIC_SEARCHROOM_HOUSE_TYPE=house</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎增加house对应的type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置：sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=room下一行</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tasktrack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>预发布环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测环境</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -456,6 +561,31 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -638,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +894,45 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1117,17 +1286,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1153,7 +1322,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1272,7 +1441,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1325,7 +1494,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1382,7 +1551,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1439,7 +1608,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1490,7 +1659,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1543,7 +1712,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1596,7 +1765,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="17.25">
+    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1647,7 +1816,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="17.25">
+    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1698,7 +1867,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="17.25">
+    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1749,7 +1918,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1800,7 +1969,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1823,7 +1992,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -1846,7 +2015,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1869,7 +2038,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1892,7 +2061,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1915,7 +2084,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1938,7 +2107,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1961,7 +2130,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1984,7 +2153,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2007,7 +2176,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2030,7 +2199,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2053,7 +2222,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2076,7 +2245,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2099,7 +2268,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2122,7 +2291,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2145,7 +2314,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2168,7 +2337,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2191,7 +2360,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2214,7 +2383,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2237,7 +2406,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2260,7 +2429,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2283,7 +2452,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2306,7 +2475,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2329,7 +2498,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2352,7 +2521,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2375,7 +2544,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2398,7 +2567,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2421,7 +2590,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2444,7 +2613,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2467,7 +2636,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2490,7 +2659,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2513,7 +2682,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2536,7 +2705,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2559,7 +2728,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2582,7 +2751,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2605,7 +2774,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2628,7 +2797,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2651,7 +2820,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2674,7 +2843,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2697,7 +2866,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2720,7 +2889,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2743,7 +2912,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2766,7 +2935,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2789,7 +2958,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2812,7 +2981,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2835,7 +3004,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2858,7 +3027,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2881,7 +3050,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2904,7 +3073,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2927,7 +3096,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2950,7 +3119,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2973,7 +3142,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2996,7 +3165,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3019,7 +3188,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3042,7 +3211,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3065,7 +3234,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3088,7 +3257,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3111,7 +3280,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3134,7 +3303,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3157,7 +3326,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3180,7 +3349,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3203,7 +3372,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3226,7 +3395,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3249,7 +3418,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3272,7 +3441,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3295,7 +3464,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3318,7 +3487,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3341,7 +3510,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3364,7 +3533,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3387,7 +3556,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3410,7 +3579,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3433,7 +3602,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3456,7 +3625,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3479,7 +3648,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5">
+    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3502,7 +3671,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5">
+    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3525,7 +3694,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5">
+    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3548,7 +3717,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5">
+    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3571,7 +3740,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5">
+    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3594,7 +3763,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5">
+    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3617,7 +3786,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5">
+    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3640,7 +3809,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5">
+    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3663,7 +3832,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5">
+    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3686,7 +3855,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5">
+    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3709,7 +3878,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5">
+    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3732,7 +3901,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5">
+    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3755,7 +3924,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5">
+    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3778,7 +3947,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5">
+    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3801,7 +3970,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5">
+    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3824,7 +3993,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5">
+    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3847,7 +4016,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5">
+    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3870,7 +4039,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5">
+    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3893,7 +4062,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5">
+    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3913,7 +4082,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5">
+    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3933,7 +4102,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5">
+    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3953,7 +4122,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5">
+    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3973,7 +4142,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5">
+    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3993,7 +4162,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5">
+    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4013,7 +4182,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5">
+    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4033,7 +4202,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5">
+    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4053,7 +4222,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5">
+    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4073,7 +4242,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5">
+    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4093,7 +4262,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5">
+    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4113,7 +4282,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5">
+    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4133,7 +4302,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5">
+    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4153,7 +4322,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5">
+    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4173,7 +4342,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5">
+    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4193,7 +4362,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5">
+    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4213,7 +4382,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5">
+    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4233,7 +4402,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5">
+    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4253,7 +4422,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5">
+    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4273,7 +4442,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5">
+    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4293,7 +4462,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5">
+    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4313,7 +4482,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5">
+    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4333,7 +4502,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5">
+    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4353,7 +4522,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5">
+    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4373,7 +4542,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5">
+    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4393,7 +4562,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5">
+    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4413,7 +4582,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5">
+    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4433,7 +4602,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5">
+    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4453,7 +4622,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5">
+    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4473,7 +4642,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5">
+    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4493,7 +4662,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5">
+    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4513,7 +4682,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16.5">
+    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4533,7 +4702,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4553,7 +4722,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4573,7 +4742,7 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4593,131 +4762,131 @@
       <c r="Q138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
@@ -4729,21 +4898,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>27</v>
       </c>
@@ -4756,7 +5496,7 @@
       <c r="H1" s="38"/>
       <c r="I1" s="39"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -4767,7 +5507,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="41"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4796,7 +5536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4807,7 +5547,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4818,7 +5558,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4829,7 +5569,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4840,7 +5580,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4851,7 +5591,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4862,7 +5602,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4873,7 +5613,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4884,7 +5624,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4895,7 +5635,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4906,7 +5646,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4934,15 +5674,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4953,7 +5693,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +5719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4989,7 +5729,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4999,7 +5739,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5009,7 +5749,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5019,7 +5759,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5029,7 +5769,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5039,7 +5779,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5049,7 +5789,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5059,7 +5799,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5069,7 +5809,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5079,7 +5819,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5089,7 +5829,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5099,7 +5839,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5109,7 +5849,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5119,7 +5859,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5129,7 +5869,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5139,7 +5879,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5149,7 +5889,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.1.3.1 20161201\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.3.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -261,10 +256,6 @@
   </si>
   <si>
     <t>renter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>免测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -305,10 +296,6 @@
   </si>
   <si>
     <t>王龙国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>mogoda</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -439,12 +426,20 @@
     <t>公测环境</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -883,30 +878,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -933,6 +904,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1286,17 +1281,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1322,7 +1317,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1428,11 +1423,15 @@
       <c r="N2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P2" s="11">
         <v>42705</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R2" s="28">
         <v>5688</v>
       </c>
@@ -1441,7 +1440,7 @@
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1482,11 +1481,15 @@
       <c r="N3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P3" s="11">
         <v>42705</v>
       </c>
-      <c r="Q3" s="12"/>
+      <c r="Q3" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R3" s="28">
         <v>5689</v>
       </c>
@@ -1494,7 +1497,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -1551,7 +1554,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1608,7 +1611,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1659,7 +1662,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1700,11 +1703,15 @@
       <c r="N7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="7"/>
+      <c r="O7" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P7" s="11">
         <v>42705</v>
       </c>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R7" s="7">
         <v>5692</v>
       </c>
@@ -1712,7 +1719,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>36</v>
@@ -1751,9 +1758,11 @@
         <v>38</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P8" s="11">
         <v>42705</v>
       </c>
@@ -1765,7 +1774,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="17.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1782,7 +1791,7 @@
         <v>62</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>36</v>
@@ -1806,17 +1815,21 @@
       <c r="N9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P9" s="11">
         <v>42705</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="17.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1827,13 +1840,13 @@
         <v>42</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>36</v>
@@ -1849,7 +1862,7 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>38</v>
@@ -1867,7 +1880,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="17.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1878,47 +1891,51 @@
         <v>42</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="11">
         <v>42705</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="11">
         <v>42705</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P11" s="11">
         <v>42705</v>
       </c>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1929,13 +1946,13 @@
         <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>36</v>
@@ -1951,25 +1968,29 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="7"/>
+        <v>76</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P12" s="11">
         <v>42705</v>
       </c>
-      <c r="Q12" s="4"/>
+      <c r="Q12" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -1992,7 +2013,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2015,7 +2036,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2038,7 +2059,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2061,7 +2082,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2084,7 +2105,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2107,7 +2128,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2130,7 +2151,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2153,7 +2174,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2176,7 +2197,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2199,7 +2220,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2222,7 +2243,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2245,7 +2266,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2268,7 +2289,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2291,7 +2312,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2314,7 +2335,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2337,7 +2358,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2360,7 +2381,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2383,7 +2404,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2406,7 +2427,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2429,7 +2450,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2452,7 +2473,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2475,7 +2496,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2498,7 +2519,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2521,7 +2542,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2544,7 +2565,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2567,7 +2588,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2590,7 +2611,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2613,7 +2634,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2636,7 +2657,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2659,7 +2680,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2682,7 +2703,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2705,7 +2726,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2728,7 +2749,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2751,7 +2772,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2774,7 +2795,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2797,7 +2818,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2820,7 +2841,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2843,7 +2864,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2866,7 +2887,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2889,7 +2910,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2912,7 +2933,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2935,7 +2956,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2958,7 +2979,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2981,7 +3002,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3004,7 +3025,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3027,7 +3048,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3050,7 +3071,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3073,7 +3094,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3096,7 +3117,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3119,7 +3140,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3142,7 +3163,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3165,7 +3186,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3188,7 +3209,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3211,7 +3232,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3234,7 +3255,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3257,7 +3278,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3280,7 +3301,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3303,7 +3324,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3326,7 +3347,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3349,7 +3370,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3372,7 +3393,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3395,7 +3416,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3418,7 +3439,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3441,7 +3462,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3464,7 +3485,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3487,7 +3508,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3510,7 +3531,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3533,7 +3554,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3556,7 +3577,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3579,7 +3600,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3602,7 +3623,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3625,7 +3646,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3648,7 +3669,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3671,7 +3692,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3694,7 +3715,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3717,7 +3738,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3740,7 +3761,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3763,7 +3784,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3786,7 +3807,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3809,7 +3830,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3832,7 +3853,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3855,7 +3876,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3878,7 +3899,7 @@
       <c r="T95" s="7"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3901,7 +3922,7 @@
       <c r="T96" s="7"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3924,7 +3945,7 @@
       <c r="T97" s="7"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3947,7 +3968,7 @@
       <c r="T98" s="7"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3970,7 +3991,7 @@
       <c r="T99" s="7"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3993,7 +4014,7 @@
       <c r="T100" s="7"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -4016,7 +4037,7 @@
       <c r="T101" s="7"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -4039,7 +4060,7 @@
       <c r="T102" s="7"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -4062,7 +4083,7 @@
       <c r="T103" s="7"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -4082,7 +4103,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -4102,7 +4123,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -4122,7 +4143,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -4142,7 +4163,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -4162,7 +4183,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -4182,7 +4203,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -4202,7 +4223,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -4222,7 +4243,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -4242,7 +4263,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -4262,7 +4283,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -4282,7 +4303,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -4302,7 +4323,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -4322,7 +4343,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -4342,7 +4363,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -4362,7 +4383,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -4382,7 +4403,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -4402,7 +4423,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -4422,7 +4443,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -4442,7 +4463,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -4462,7 +4483,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -4482,7 +4503,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4502,7 +4523,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" ht="16.5">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4522,7 +4543,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" ht="16.5">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4542,7 +4563,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" ht="16.5">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4562,7 +4583,7 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" ht="16.5">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4582,7 +4603,7 @@
       <c r="Q129" s="4"/>
       <c r="U129" s="4"/>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" ht="16.5">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4602,7 +4623,7 @@
       <c r="Q130" s="4"/>
       <c r="U130" s="4"/>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" ht="16.5">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4622,7 +4643,7 @@
       <c r="Q131" s="4"/>
       <c r="U131" s="4"/>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" ht="16.5">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4642,7 +4663,7 @@
       <c r="Q132" s="4"/>
       <c r="U132" s="4"/>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" ht="16.5">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4662,7 +4683,7 @@
       <c r="Q133" s="4"/>
       <c r="U133" s="4"/>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" ht="16.5">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4682,7 +4703,7 @@
       <c r="Q134" s="4"/>
       <c r="U134" s="4"/>
     </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" ht="16.5">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4702,7 +4723,7 @@
       <c r="Q135" s="4"/>
       <c r="U135" s="4"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4722,7 +4743,7 @@
       <c r="Q136" s="4"/>
       <c r="U136" s="4"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4742,7 +4763,7 @@
       <c r="Q137" s="4"/>
       <c r="U137" s="4"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4762,131 +4783,131 @@
       <c r="Q138" s="4"/>
       <c r="U138" s="4"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:3">
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:3">
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:3">
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:3">
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:3">
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:3">
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:3">
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:3">
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:3">
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:3">
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
     </row>
@@ -4898,131 +4919,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="41" customFormat="1" ht="16.5">
+      <c r="A3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="H3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="46" customFormat="1" ht="115.5">
+      <c r="A4" s="43">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="C4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="F4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="G4" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="J4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="K4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="M4" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5043,130 +5064,130 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="41" customFormat="1" ht="16.5">
+      <c r="A3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="H3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="46" customFormat="1" ht="115.5">
+      <c r="A4" s="43">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="C4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="F4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="G4" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="J4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="K4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="M4" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5187,127 +5208,127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="41" customFormat="1" ht="16.5">
+      <c r="A3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="H3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="46" customFormat="1" ht="115.5">
+      <c r="A4" s="43">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="C4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="F4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="G4" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="H4" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="I4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="K4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="M4" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5328,127 +5349,127 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" s="41" customFormat="1" ht="16.5">
+      <c r="A3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="H3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="I3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="46" customFormat="1" ht="115.5">
+      <c r="A4" s="43">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="46" t="s">
+      <c r="C4" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="54" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="51" t="s">
+      <c r="F4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="51" t="s">
+      <c r="G4" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="H4" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="I4" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="K4" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="M4" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="52" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5469,45 +5490,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -5536,7 +5557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -5547,7 +5568,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5558,7 +5579,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5569,7 +5590,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5580,7 +5601,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5591,7 +5612,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5602,7 +5623,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5613,7 +5634,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5624,7 +5645,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5635,7 +5656,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5646,7 +5667,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5675,14 +5696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5693,7 +5714,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -5719,7 +5740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5729,7 +5750,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5739,7 +5760,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5749,7 +5770,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5759,7 +5780,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5769,7 +5790,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5779,7 +5800,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5789,7 +5810,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5799,7 +5820,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5809,7 +5830,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5819,7 +5840,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5829,7 +5850,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5839,7 +5860,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5849,7 +5870,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5859,7 +5880,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5869,7 +5890,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5879,7 +5900,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5889,7 +5910,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="105">
   <si>
     <t>No</t>
   </si>
@@ -1288,7 +1288,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1652,11 +1652,15 @@
       <c r="N6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P6" s="11">
         <v>42705</v>
       </c>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
@@ -1870,11 +1874,15 @@
       <c r="N10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="P10" s="11">
         <v>42705</v>
       </c>
-      <c r="Q10" s="4"/>
+      <c r="Q10" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>

--- a/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.1 20161201/版本Bug和特性计划及评审表v5.1.3.1_EQ组.xlsx
@@ -259,27 +259,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>修复房东V分计算定时器的异常</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>朱彤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>租客P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>C 芝麻信用页面 无法切换城市</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -432,6 +412,26 @@
   </si>
   <si>
     <t>定时器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>租客P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C 芝麻信用页面，未显示城市</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复房东V分计算定时器的异常</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1285,10 +1285,10 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1740,7 +1740,7 @@
         <v>62</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>36</v>
@@ -1762,7 +1762,7 @@
         <v>38</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>43</v>
@@ -1795,7 +1795,7 @@
         <v>62</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>36</v>
@@ -1844,13 +1844,13 @@
         <v>42</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>36</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>38</v>
@@ -1883,7 +1883,9 @@
       <c r="Q10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="7">
+        <v>5736</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
@@ -1899,35 +1901,35 @@
         <v>42</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11" s="11">
         <v>42705</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" s="11">
         <v>42705</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>43</v>
@@ -1938,7 +1940,9 @@
       <c r="Q11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="R11" s="7"/>
+      <c r="R11" s="7">
+        <v>5735</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
@@ -1954,13 +1958,13 @@
         <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>36</v>
@@ -1976,13 +1980,13 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>43</v>
@@ -4942,7 +4946,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -4983,31 +4987,31 @@
         <v>30</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="K3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>14</v>
@@ -5018,40 +5022,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="G4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="K4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5090,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -5127,31 +5131,31 @@
         <v>30</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="K3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>14</v>
@@ -5162,40 +5166,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="G4" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="K4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5227,7 +5231,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -5268,31 +5272,31 @@
         <v>30</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="K3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>14</v>
@@ -5303,40 +5307,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="G4" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="H4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="I4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="K4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5368,7 +5372,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -5409,31 +5413,31 @@
         <v>30</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="J3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="K3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" s="38" t="s">
+      <c r="L3" s="38" t="s">
         <v>86</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>14</v>
@@ -5444,40 +5448,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="G4" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="H4" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="I4" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="K4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="44" t="s">
+      <c r="M4" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
